--- a/houtai/base/biz/main/src/main/resources/static/file/防疫政工办统计表.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/防疫政工办统计表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23480" windowHeight="15940"/>
+    <workbookView windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -205,18 +205,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,30 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -283,6 +259,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -290,46 +290,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,31 +356,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +464,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,139 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,11 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +634,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +668,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,176 +702,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1233,7 +1233,7 @@
   <cols>
     <col min="1" max="1" width="22.6517857142857" customWidth="1"/>
     <col min="2" max="33" width="3.57142857142857" customWidth="1"/>
-    <col min="34" max="34" width="59.9642857142857" customWidth="1"/>
+    <col min="34" max="34" width="92.7589285714286" customWidth="1"/>
     <col min="35" max="35" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
